--- a/model_overview.xlsx
+++ b/model_overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52812cd473a2af71/Dokumente/Desktop/UZH_Biostatistik/Masterarbeit/MA_Mike/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="8_{8DF8C72C-5A2F-4A3A-8C07-8DFB9069A924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24AA10D1-44F4-4595-B14E-BCC049DB6CDD}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="8_{8DF8C72C-5A2F-4A3A-8C07-8DFB9069A924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{577C6DAB-0363-45F7-AFCE-071434FCC87E}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{41D3370F-51FE-4281-B921-46630849076F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Runs</t>
   </si>
@@ -252,6 +252,24 @@
   </si>
   <si>
     <t>350 with LR 0.005, then 350 with LR 0.001 --&gt; not good</t>
+  </si>
+  <si>
+    <t>runs/TRAM_DAG_ITE_simulation_pt2_single_model_newDGP_CS_Relu_CI</t>
+  </si>
+  <si>
+    <t>CI with all variables, relu, batchnorm</t>
+  </si>
+  <si>
+    <t>1600 approx</t>
+  </si>
+  <si>
+    <t>same R file as above (CS_relu) --&gt; not bad results, maybe train longer</t>
+  </si>
+  <si>
+    <t>fitted on 13.05.</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -307,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -315,11 +333,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -335,6 +352,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -654,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F6386D-B8FD-48AC-8B00-EF5FE62AA106}">
-  <dimension ref="B4:F15"/>
+  <dimension ref="B4:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -666,10 +687,11 @@
     <col min="3" max="3" width="35.25" customWidth="1"/>
     <col min="4" max="4" width="35.375" customWidth="1"/>
     <col min="5" max="5" width="31.75" customWidth="1"/>
-    <col min="6" max="6" width="59.125" customWidth="1"/>
+    <col min="6" max="6" width="94.5" customWidth="1"/>
+    <col min="7" max="7" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -685,9 +707,12 @@
       <c r="F4" t="s">
         <v>14</v>
       </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="5" spans="2:6" ht="71.349999999999994" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="2:7" ht="71.349999999999994" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
@@ -696,24 +721,24 @@
       <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="71.349999999999994" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
+    <row r="6" spans="2:7" ht="71.349999999999994" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
       <c r="C6" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="57.1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
+    <row r="7" spans="2:7" ht="57.1" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -724,8 +749,8 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="78.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
+    <row r="8" spans="2:7" ht="78.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -735,12 +760,12 @@
       <c r="E8">
         <v>1150</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="85.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
+    <row r="9" spans="2:7" ht="85.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -751,11 +776,31 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D11" s="1"/>
     </row>
-    <row r="15" spans="2:6" ht="71.349999999999994" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+    <row r="15" spans="2:7" ht="71.349999999999994" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C15" t="s">
